--- a/data/table1_data.xlsx
+++ b/data/table1_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur/Coding/projects/active/toci_sari_bari/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8251EB2-F182-BF44-8A09-BEDE8C5CE2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966AD196-4659-3B42-8941-385350F6EA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="-17840" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="160">
   <si>
     <t>study_name</t>
   </si>
@@ -487,13 +487,31 @@
   </si>
   <si>
     <t>Based on weight, &lt; 75 kg: 200 mg; &gt;= 400 mg</t>
+  </si>
+  <si>
+    <t>Lescure et al.</t>
+  </si>
+  <si>
+    <t>Single dose with possible second dose based on the investigator's benfit-risk assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (3–10) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.0 (53.0–69.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.0 (48.0–67.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (2–10) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +537,11 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Shaker2Lancet"/>
     </font>
   </fonts>
   <fills count="2">
@@ -556,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -573,6 +596,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,11 +913,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="R12" zoomScale="140" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
@@ -916,7 +940,7 @@
     <col min="22" max="22" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -984,7 +1008,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" s="3" t="s">
         <v>73</v>
       </c>
@@ -1052,7 +1076,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1120,7 +1144,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1188,7 +1212,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1256,7 +1280,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1324,7 +1348,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1392,7 +1416,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1460,7 +1484,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9" s="3" t="s">
         <v>98</v>
       </c>
@@ -1528,7 +1552,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1596,7 +1620,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1664,7 +1688,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1732,7 +1756,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="A13" s="3" t="s">
         <v>105</v>
       </c>
@@ -1800,7 +1824,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1868,7 +1892,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -1936,7 +1960,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -2004,7 +2028,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -2072,7 +2096,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -2140,7 +2164,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -2208,7 +2232,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -2276,7 +2300,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22">
       <c r="A21" s="3" t="s">
         <v>117</v>
       </c>
@@ -2344,7 +2368,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22">
       <c r="A22" s="3" t="s">
         <v>118</v>
       </c>
@@ -2412,7 +2436,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22">
       <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
@@ -2480,7 +2504,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22">
       <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
@@ -2548,7 +2572,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22">
       <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
@@ -2616,7 +2640,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22">
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
@@ -2684,7 +2708,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22">
       <c r="A27" s="3" t="s">
         <v>72</v>
       </c>
@@ -2752,7 +2776,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22">
       <c r="A28" s="3" t="s">
         <v>145</v>
       </c>
@@ -2820,25 +2844,75 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22">
+      <c r="A29" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="2">
+        <v>28</v>
+      </c>
+      <c r="H29" s="2">
+        <v>45</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K29" s="2">
+        <v>72</v>
+      </c>
+      <c r="L29" s="2">
+        <v>76</v>
+      </c>
+      <c r="M29" s="2">
+        <v>15</v>
+      </c>
+      <c r="N29" s="2">
+        <v>13</v>
+      </c>
+      <c r="O29" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="P29" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>64</v>
+      </c>
+      <c r="R29" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="S29" s="2">
+        <v>100</v>
+      </c>
+      <c r="T29" s="2">
+        <v>100</v>
+      </c>
+      <c r="U29" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2856,7 +2930,7 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22">
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -2874,7 +2948,7 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22">
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -2892,7 +2966,7 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:22">
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -2910,7 +2984,7 @@
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
     </row>
-    <row r="34" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:22">
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -2928,7 +3002,7 @@
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
     </row>
-    <row r="35" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:22">
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -2946,7 +3020,7 @@
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
     </row>
-    <row r="36" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:22">
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -2964,7 +3038,7 @@
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
     </row>
-    <row r="37" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:22">
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -2982,7 +3056,7 @@
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
     </row>
-    <row r="38" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:22">
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -3000,7 +3074,7 @@
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
     </row>
-    <row r="39" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:22">
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -3018,7 +3092,7 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:22">
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="2"/>
@@ -3036,7 +3110,7 @@
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
     </row>
-    <row r="41" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="7:22">
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="2"/>
@@ -3054,7 +3128,7 @@
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
     </row>
-    <row r="42" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="7:22">
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="2"/>
@@ -3072,7 +3146,7 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="7:22">
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="2"/>
@@ -3090,7 +3164,7 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="7:22">
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="2"/>
@@ -3108,7 +3182,7 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="7:22">
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="2"/>
@@ -3126,7 +3200,7 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="7:22">
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="2"/>
@@ -3144,7 +3218,7 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="7:22">
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="2"/>
@@ -3162,7 +3236,7 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="7:22">
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="2"/>
@@ -3180,7 +3254,7 @@
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="7:22">
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="2"/>
@@ -3198,7 +3272,7 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="7:22">
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="2"/>
@@ -3216,7 +3290,7 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="7:22">
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="2"/>
@@ -3234,7 +3308,7 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="7:22">
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="2"/>
@@ -3252,7 +3326,7 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="7:22">
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -3270,7 +3344,7 @@
       <c r="U53" s="2"/>
       <c r="V53" s="1"/>
     </row>
-    <row r="54" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="7:22">
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -3288,7 +3362,7 @@
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
     </row>
-    <row r="55" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="7:22">
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -3306,7 +3380,7 @@
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
     </row>
-    <row r="56" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="7:22">
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3324,7 +3398,7 @@
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
     </row>
-    <row r="57" spans="7:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="7:22">
       <c r="U57" s="1"/>
     </row>
   </sheetData>
